--- a/Research Material - Testing/User Testing Results.xlsx
+++ b/Research Material - Testing/User Testing Results.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C58F6-455C-4341-9D4F-D3910FFA53F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E2B91-D7A0-4A5C-BD96-E2CF7F6D7E5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Game Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Questionnaire" sheetId="2" r:id="rId2"/>
+    <sheet name="Interviews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>Mcomp Research Project - User Testing Results</t>
   </si>
@@ -64,9 +66,6 @@
     <t>Level 3 Resets</t>
   </si>
   <si>
-    <t>Total Time</t>
-  </si>
-  <si>
     <t>Total Resets</t>
   </si>
   <si>
@@ -116,6 +115,252 @@
   </si>
   <si>
     <t>/100</t>
+  </si>
+  <si>
+    <t>/120</t>
+  </si>
+  <si>
+    <t>/130</t>
+  </si>
+  <si>
+    <t>Participant 1</t>
+  </si>
+  <si>
+    <t>Participant 2</t>
+  </si>
+  <si>
+    <t>Participant 3</t>
+  </si>
+  <si>
+    <t>Participant 4</t>
+  </si>
+  <si>
+    <t>Participant 5</t>
+  </si>
+  <si>
+    <t>Participant 6</t>
+  </si>
+  <si>
+    <t>Participant 7</t>
+  </si>
+  <si>
+    <t>Participant 8</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Question 16</t>
+  </si>
+  <si>
+    <t>Question 17</t>
+  </si>
+  <si>
+    <t>Question 18</t>
+  </si>
+  <si>
+    <t>Question 19</t>
+  </si>
+  <si>
+    <t>Question 20</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Total Time (ms)</t>
+  </si>
+  <si>
+    <t>Did you find the puzzles in the game engaging? If not, why?</t>
+  </si>
+  <si>
+    <t>Did you enjoy the mechanics of altering the terrain? If not, why?</t>
+  </si>
+  <si>
+    <t>Were there any parts of the game that detracted from the overall experience? Why was this?</t>
+  </si>
+  <si>
+    <t>In a more fleshed out version of the game, what changes would you like to see?</t>
+  </si>
+  <si>
+    <t>Were there any other prevailing thoughts you had whilst playing the game?</t>
+  </si>
+  <si>
+    <t>I enjoyed the movement of the terrain, but I felt that it should have kept more of a flat surface so the player can stand on it easier.</t>
+  </si>
+  <si>
+    <t>Whenever you move the camera around the level, it makes it hard to keep track of how to move the player, which was rather confusing.</t>
+  </si>
+  <si>
+    <t>I'd perhaps like to see larger levels where you can play around a bit more with the deformation, as it feels a bit limiting currently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has a rather simplistic look to it, though the colours are quite pleasing. </t>
+  </si>
+  <si>
+    <t>I thought the puzzles were rather simple and didn't require too much effort to solve.</t>
+  </si>
+  <si>
+    <t>I enjoyed the puzzles in the game, though I would have preferred there to be more.</t>
+  </si>
+  <si>
+    <t>The puzzles were not particularly difficult, they could've had more challenging aspects.</t>
+  </si>
+  <si>
+    <t>I found the puzzles to be rather entertaining, though there were some slight design issues where I couldn't reach the switches sometimes.</t>
+  </si>
+  <si>
+    <t>I would like to see some more challenging puzzles that use the terrain deformation in different ways.</t>
+  </si>
+  <si>
+    <t>I'd like to have more freedom in how to play around with the terrain deformation.</t>
+  </si>
+  <si>
+    <t>There should perhaps be some more complex challenges to make the puzzles more interesting.</t>
+  </si>
+  <si>
+    <t>I liked the terrain alteration, though I felt it could have been better if it was done in front of the player instead of underneath.</t>
+  </si>
+  <si>
+    <t>The camera controls, while they helped to give a view of the entire level, made it difficult to control the character.</t>
+  </si>
+  <si>
+    <t>I think there should have been more of a chance to play around with the deformation.</t>
+  </si>
+  <si>
+    <t>/140</t>
+  </si>
+  <si>
+    <t>Total Time (s)</t>
+  </si>
+  <si>
+    <t>The way the game is designed makes it a bit cumbersome to play around with the deformation, as you have limited usage of it.</t>
+  </si>
+  <si>
+    <t>The game world could be more interesting to interact with and look at.</t>
+  </si>
+  <si>
+    <t>The puzzles started relatively simple but soon ramped up and were quite fun to work through.</t>
+  </si>
+  <si>
+    <t>The puzzles weren't especially complex, but they were still enjoyable to solve.</t>
+  </si>
+  <si>
+    <t>I found that some of the puzzles, in particular those where you had to go down, were rather difficult to solve in practice due to the way the deformation works.</t>
+  </si>
+  <si>
+    <t>Most of the puzzles were rather enjoyable, I liked the twist of having areas where you can't move the ground, but the walls you had to go under were a bit irritating.</t>
+  </si>
+  <si>
+    <t>I would have prefered a different control scheme for the player, for when you move the camera.</t>
+  </si>
+  <si>
+    <t>I wish I would have had more freedom to play around with the ground deformation in the game.</t>
+  </si>
+  <si>
+    <t>There could have been a thematic reasoning for the deformation, such as the player having a spade or something.</t>
+  </si>
+  <si>
+    <t>The player character was quite simplistic, I think it would've been more engaging to have an interesting character  to play as.</t>
+  </si>
+  <si>
+    <t>There could have been in-game prompts for the controls so that you don't have to refer back to the control sheet.</t>
+  </si>
+  <si>
+    <t>The puzzles where you had to go under a wall to reach the swich were a bit of a pain as you couldn't easily make a dip under the wall.</t>
+  </si>
+  <si>
+    <t>I found the walls you had to deform under a bit frustrating as you couldn't choose to place your trenches under the wall, just under your character.</t>
+  </si>
+  <si>
+    <t>I had good fun with the deformation mechanics, as it made the level feel dynamic, though I would've prefered a bit more freedom to play around with them.</t>
+  </si>
+  <si>
+    <t>The deformation was fairly enjoyable, though I feel it could have been used to solve more interesting puzzles.</t>
+  </si>
+  <si>
+    <t>The deformation was an interesting mechanic, I feel like it could lead to more complex puzzles.</t>
+  </si>
+  <si>
+    <t>I found the mechanics quite fun and interesting to play around with, though I think it would be better if you could choose where to do the deformation around your character.</t>
+  </si>
+  <si>
+    <t>I think the idea of the terrain alteration was good , though I think it was rather simple in what it did, there could have been more ways for it to solve the puzzles.</t>
+  </si>
+  <si>
+    <t>I thought the deformation was fun to play around with and it made for a fresh and interesting way to think of a game level.</t>
+  </si>
+  <si>
+    <t>It was quite difficult to control the character after moving the camera around the level, which made things a bit disorientating.</t>
+  </si>
+  <si>
+    <t>It was rather difficult to smoothly get under some of the walls to reach certain switches because of the deformation happening under the player.</t>
+  </si>
+  <si>
+    <t>I think that it would have been better if the deformation wasn't so limited, so that you can play around with it a bit more to find different ways to solve the puzzles.</t>
+  </si>
+  <si>
+    <t>There could perhaps be a change to the deformation so that it occurs in front of the player instead of underneath them, so you can choose were to place it a bit easier.</t>
+  </si>
+  <si>
+    <t>I think there should be the ability to move where you perform the deformation in relation to your character, so you don't do it underneath yourself every time.</t>
+  </si>
+  <si>
+    <t>There should be a change to the player controls so that it takes into account when you've moved the camera around.</t>
+  </si>
+  <si>
+    <t>I think there could be a greater range in what you can do in the levels, perhaps having alternative side puzzles that the player can choose to do instead.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +420,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -466,15 +723,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,8 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -519,14 +945,61 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,6 +1015,6225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Deformation Usage Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Game Metrics'!$B$27,'Game Metrics'!$B$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Total Upwards Deform</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Down Deform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Game Metrics'!$K$27,'Game Metrics'!$K$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-735B-4B53-8A2B-1C59972ED0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Time Taken</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>576.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>505.226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.59299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>438.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.84699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2777-4762-815E-87A64B9386DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="596361592"/>
+        <c:axId val="596354376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="596361592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Study Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596354376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="596354376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time Taken (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596361592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Resets Per Level</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 1 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 2 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 3 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 1 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 2 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 3 Resets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-11EA-4C12-A8B3-A6799E630FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="565519272"/>
+        <c:axId val="565515664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="565519272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Study Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565515664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565515664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Times Reset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="565519272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time Taken</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 1 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>67023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 2 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo Level 3 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 1 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 2 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>113874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Metrics'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 3 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Metrics'!$C$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>121038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AD3C-4F74-9CB2-A19D85C54E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="571382728"/>
+        <c:axId val="571385680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571382728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Study Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571385680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571385680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time taken (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571382728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Questionnaire Component</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Responses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Questionnaire!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Competence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Questionnaire!$C$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0F9-4393-A635-A1B992F5908E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Questionnaire!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Challenge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Questionnaire!$C$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0F9-4393-A635-A1B992F5908E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Questionnaire!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Questionnaire!$C$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0F9-4393-A635-A1B992F5908E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Questionnaire!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Questionnaire!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0F9-4393-A635-A1B992F5908E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571386336"/>
+        <c:axId val="571386664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571386336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Study</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571386664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571386664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Component Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571386336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055D8CF2-01EE-489F-A036-A59334089DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>881061</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F183060-EF0B-47BD-A66F-FA1AFB152408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>585105</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>241217</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01511A0-7F5E-48D9-8ED6-28AD5799F5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>560243</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>231198</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>154997</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F6419C-DCC2-4C46-A79E-05F5FC492E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51333F4B-387F-449F-810D-763E58281E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,10 +7499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,663 +7510,1011 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>67023</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>9771</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>32932</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>13049</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>50139</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>11837</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>49582</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="43">
         <v>27658</v>
       </c>
-      <c r="L6" t="s">
-        <v>30</v>
+      <c r="M6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>89201</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>8523</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>73284</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>12043</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>80345</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>10234</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>85039</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="44">
         <v>82304</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>84953</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>11454</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>67495</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>13046</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>62031</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>40324</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>53323</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="44">
         <v>49522</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>100321</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>36110</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>120034</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>53504</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>98432</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>87496</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>68759</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="44">
         <v>89475</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>113874</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>68177</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>101238</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>95403</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>87496</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>90355</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>100231</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="44">
         <v>93403</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>121038</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49">
-        <v>0</v>
+      <c r="D11" s="10">
+        <v>74023</v>
+      </c>
+      <c r="E11" s="10">
+        <v>110243</v>
+      </c>
+      <c r="F11" s="10">
+        <v>67548</v>
+      </c>
+      <c r="G11" s="10">
+        <v>114927</v>
+      </c>
+      <c r="H11" s="10">
+        <v>80124</v>
+      </c>
+      <c r="I11" s="10">
+        <v>81294</v>
+      </c>
+      <c r="J11" s="44">
+        <v>76485</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="51">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="46">
         <f>SUM(C6:C11)</f>
         <v>576410</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="47">
         <f>SUM(D6:D11)</f>
-        <v>134035</v>
-      </c>
-      <c r="E12" s="52">
+        <v>208058</v>
+      </c>
+      <c r="E12" s="47">
         <f>SUM(E6:E11)</f>
-        <v>394983</v>
-      </c>
-      <c r="F12" s="52">
+        <v>505226</v>
+      </c>
+      <c r="F12" s="47">
         <f>SUM(F6:F11)</f>
-        <v>187045</v>
-      </c>
-      <c r="G12" s="52">
+        <v>254593</v>
+      </c>
+      <c r="G12" s="47">
         <f>SUM(G6:G11)</f>
-        <v>378443</v>
-      </c>
-      <c r="H12" s="52">
+        <v>493370</v>
+      </c>
+      <c r="H12" s="47">
         <f>SUM(H6:H11)</f>
-        <v>240246</v>
-      </c>
-      <c r="I12" s="52">
+        <v>320370</v>
+      </c>
+      <c r="I12" s="47">
         <f>SUM(I6:I11)</f>
-        <v>356934</v>
-      </c>
-      <c r="J12" s="53">
+        <v>438228</v>
+      </c>
+      <c r="J12" s="48">
         <f>SUM(J6:J11)</f>
-        <v>342362</v>
+        <v>418847</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="80">
+        <f>C12/1000</f>
+        <v>576.41</v>
+      </c>
+      <c r="D13" s="80">
+        <f t="shared" ref="D13:J13" si="0">D12/1000</f>
+        <v>208.05799999999999</v>
+      </c>
+      <c r="E13" s="80">
+        <f t="shared" si="0"/>
+        <v>505.226</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" si="0"/>
+        <v>254.59299999999999</v>
+      </c>
+      <c r="G13" s="80">
+        <f t="shared" si="0"/>
+        <v>493.37</v>
+      </c>
+      <c r="H13" s="80">
+        <f t="shared" si="0"/>
+        <v>320.37</v>
+      </c>
+      <c r="I13" s="80">
+        <f t="shared" si="0"/>
+        <v>438.22800000000001</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" si="0"/>
+        <v>418.84699999999998</v>
+      </c>
+      <c r="K13" s="80">
+        <f>SUM(C13:J13)/8</f>
+        <v>401.88774999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C14" s="15">
         <v>2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="16">
         <v>2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="16">
         <v>2</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="12">
         <v>3</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="13">
         <v>0</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="13">
         <v>4</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="13">
         <v>0</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="13">
         <v>3</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="13">
         <v>2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="13">
         <v>3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="13">
         <v>2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="12">
         <v>3</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="18">
         <v>1</v>
       </c>
+      <c r="N18" s="62">
+        <v>120</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="19"/>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="N19" s="62">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" ref="C20:J20" si="1">SUM(C14:C19)</f>
+        <v>13</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K20" s="81">
+        <f>SUM(C20:J20)/8</f>
+        <v>8.5</v>
+      </c>
+      <c r="N20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="21">
-        <f>SUM(C13:C18)</f>
-        <v>13</v>
-      </c>
-      <c r="D19" s="22">
-        <f>SUM(D13:D18)</f>
+      <c r="C21" s="37">
+        <v>192</v>
+      </c>
+      <c r="D21" s="38">
+        <v>84</v>
+      </c>
+      <c r="E21" s="38">
+        <v>167</v>
+      </c>
+      <c r="F21" s="38">
+        <v>100</v>
+      </c>
+      <c r="G21" s="38">
+        <v>203</v>
+      </c>
+      <c r="H21" s="38">
+        <v>82</v>
+      </c>
+      <c r="I21" s="38">
+        <v>165</v>
+      </c>
+      <c r="J21" s="39">
+        <v>142</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="27">
+        <v>116</v>
+      </c>
+      <c r="D22" s="28">
         <v>0</v>
       </c>
-      <c r="E19" s="22">
-        <f>SUM(E13:E18)</f>
-        <v>11</v>
-      </c>
-      <c r="F19" s="22">
-        <f>SUM(F13:F18)</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="22">
-        <f>SUM(G13:G18)</f>
-        <v>12</v>
-      </c>
-      <c r="H19" s="22">
-        <f>SUM(H13:H18)</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="22">
-        <f>SUM(I13:I18)</f>
-        <v>11</v>
-      </c>
-      <c r="J19" s="23">
-        <f>SUM(J13:J18)</f>
-        <v>8</v>
+      <c r="E22" s="28">
+        <v>63</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <v>102</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>152</v>
+      </c>
+      <c r="J22" s="40">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <f>N19*(C17+1)</f>
+        <v>390</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41">
-        <v>84</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="L20" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="27">
+        <v>178</v>
+      </c>
+      <c r="D23" s="28">
+        <v>71</v>
+      </c>
+      <c r="E23" s="28">
+        <v>204</v>
+      </c>
+      <c r="F23" s="28">
+        <v>89</v>
+      </c>
+      <c r="G23" s="28">
+        <v>297</v>
+      </c>
+      <c r="H23" s="28">
+        <v>96</v>
+      </c>
+      <c r="I23" s="28">
+        <v>83</v>
+      </c>
+      <c r="J23" s="40">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="27">
+        <v>264</v>
+      </c>
+      <c r="D24" s="28">
+        <v>56</v>
+      </c>
+      <c r="E24" s="28">
+        <v>291</v>
+      </c>
+      <c r="F24" s="28">
+        <v>98</v>
+      </c>
+      <c r="G24" s="28">
+        <v>107</v>
+      </c>
+      <c r="H24" s="28">
+        <v>89</v>
+      </c>
+      <c r="I24" s="28">
+        <v>112</v>
+      </c>
+      <c r="J24" s="40">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
         <v>31</v>
       </c>
+      <c r="N24">
+        <f>3*140</f>
+        <v>420</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="27">
+        <v>271</v>
+      </c>
+      <c r="D25" s="28">
+        <v>62</v>
+      </c>
+      <c r="E25" s="28">
+        <v>231</v>
+      </c>
+      <c r="F25" s="28">
+        <v>136</v>
+      </c>
+      <c r="G25" s="28">
+        <v>188</v>
+      </c>
+      <c r="H25" s="28">
+        <v>59</v>
+      </c>
+      <c r="I25" s="28">
+        <v>102</v>
+      </c>
+      <c r="J25" s="40">
+        <v>106</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27">
+        <v>270</v>
+      </c>
+      <c r="D26" s="28">
+        <v>99</v>
+      </c>
+      <c r="E26" s="28">
+        <v>276</v>
+      </c>
+      <c r="F26" s="28">
+        <v>79</v>
+      </c>
+      <c r="G26" s="28">
+        <v>234</v>
+      </c>
+      <c r="H26" s="28">
+        <v>172</v>
+      </c>
+      <c r="I26" s="28">
+        <v>193</v>
+      </c>
+      <c r="J26" s="40">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="42">
+        <f>SUM(C21:C26)</f>
+        <v>1291</v>
+      </c>
+      <c r="D27" s="42">
+        <f>SUM(D21:D26)</f>
+        <v>372</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" ref="D27:J27" si="2">SUM(E21:E26)</f>
+        <v>1232</v>
+      </c>
+      <c r="F27" s="42">
+        <f t="shared" si="2"/>
+        <v>502</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="2"/>
+        <v>1131</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="2"/>
+        <v>807</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="2"/>
+        <v>478</v>
+      </c>
+      <c r="K27" s="77">
+        <f>SUM(C27:J27)</f>
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="30">
+        <v>64</v>
+      </c>
+      <c r="D28" s="31">
         <v>0</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="43"/>
+      <c r="E28" s="31">
+        <v>18</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31">
+        <v>75</v>
+      </c>
+      <c r="H28" s="31">
+        <v>18</v>
+      </c>
+      <c r="I28" s="31">
+        <v>103</v>
+      </c>
+      <c r="J28" s="32">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="24">
+        <v>284</v>
+      </c>
+      <c r="D29" s="25">
+        <v>57</v>
+      </c>
+      <c r="E29" s="25">
+        <v>203</v>
+      </c>
+      <c r="F29" s="25">
+        <v>92</v>
+      </c>
+      <c r="G29" s="25">
+        <v>275</v>
+      </c>
+      <c r="H29" s="25">
+        <v>87</v>
+      </c>
+      <c r="I29" s="25">
+        <v>274</v>
+      </c>
+      <c r="J29" s="33">
+        <v>305</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>62</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>103</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="25">
+        <v>207</v>
+      </c>
+      <c r="J30" s="33">
+        <v>279</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="24">
+        <v>106</v>
+      </c>
+      <c r="D31" s="25">
+        <v>64</v>
+      </c>
+      <c r="E31" s="25">
+        <v>118</v>
+      </c>
+      <c r="F31" s="25">
+        <v>142</v>
+      </c>
+      <c r="G31" s="25">
+        <v>241</v>
+      </c>
+      <c r="H31" s="25">
+        <v>151</v>
+      </c>
+      <c r="I31" s="25">
+        <v>193</v>
+      </c>
+      <c r="J31" s="33">
+        <v>166</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="24">
+        <v>102</v>
+      </c>
+      <c r="D32" s="25">
+        <v>68</v>
+      </c>
+      <c r="E32" s="25">
+        <v>263</v>
+      </c>
+      <c r="F32" s="25">
+        <v>103</v>
+      </c>
+      <c r="G32" s="25">
+        <v>192</v>
+      </c>
+      <c r="H32" s="25">
         <v>71</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="43"/>
+      <c r="I32" s="25">
+        <v>132</v>
+      </c>
+      <c r="J32" s="33">
+        <v>154</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="43"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="24">
+        <v>125</v>
+      </c>
+      <c r="D33" s="25">
+        <v>71</v>
+      </c>
+      <c r="E33" s="25">
+        <v>134</v>
+      </c>
+      <c r="F33" s="25">
+        <v>51</v>
+      </c>
+      <c r="G33" s="25">
+        <v>186</v>
+      </c>
+      <c r="H33" s="25">
+        <v>93</v>
+      </c>
+      <c r="I33" s="25">
+        <v>68</v>
+      </c>
+      <c r="J33" s="33">
+        <v>78</v>
+      </c>
+      <c r="M33" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26">
-        <v>57</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
+      <c r="C34" s="35">
+        <f>SUM(C28:C33)</f>
+        <v>681</v>
+      </c>
+      <c r="D34" s="35">
+        <f t="shared" ref="D34:J34" si="3">SUM(D28:D33)</f>
+        <v>260</v>
+      </c>
+      <c r="E34" s="35">
+        <f t="shared" si="3"/>
+        <v>798</v>
+      </c>
+      <c r="F34" s="35">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="G34" s="35">
+        <f t="shared" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="H34" s="35">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="I34" s="35">
+        <f t="shared" si="3"/>
+        <v>977</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" si="3"/>
+        <v>1014</v>
+      </c>
+      <c r="K34" s="78">
+        <f>SUM(C34:J34)</f>
+        <v>5610</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1482,5 +8522,985 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C4D67C-71DF-43FB-9C87-377C9B7D7633}">
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="58">
+        <v>2</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="58">
+        <v>3</v>
+      </c>
+      <c r="F4" s="58">
+        <v>2</v>
+      </c>
+      <c r="G4" s="62">
+        <v>2</v>
+      </c>
+      <c r="H4" s="58">
+        <v>3</v>
+      </c>
+      <c r="I4" s="62">
+        <v>3</v>
+      </c>
+      <c r="J4" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58">
+        <v>4</v>
+      </c>
+      <c r="E5" s="58">
+        <v>2</v>
+      </c>
+      <c r="F5" s="58">
+        <v>3</v>
+      </c>
+      <c r="G5" s="62">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58">
+        <v>3</v>
+      </c>
+      <c r="I5" s="62">
+        <v>3</v>
+      </c>
+      <c r="J5" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3</v>
+      </c>
+      <c r="D6" s="58">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58">
+        <v>4</v>
+      </c>
+      <c r="F6" s="58">
+        <v>2</v>
+      </c>
+      <c r="G6" s="62">
+        <v>3</v>
+      </c>
+      <c r="H6" s="58">
+        <v>2</v>
+      </c>
+      <c r="I6" s="62">
+        <v>3</v>
+      </c>
+      <c r="J6" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3</v>
+      </c>
+      <c r="D7" s="58">
+        <v>3</v>
+      </c>
+      <c r="E7" s="62">
+        <v>2</v>
+      </c>
+      <c r="F7" s="58">
+        <v>2</v>
+      </c>
+      <c r="G7" s="62">
+        <v>3</v>
+      </c>
+      <c r="H7" s="58">
+        <v>2</v>
+      </c>
+      <c r="I7" s="62">
+        <v>4</v>
+      </c>
+      <c r="J7" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="58">
+        <v>2</v>
+      </c>
+      <c r="D8" s="58">
+        <v>2</v>
+      </c>
+      <c r="E8" s="62">
+        <v>3</v>
+      </c>
+      <c r="F8" s="58">
+        <v>2</v>
+      </c>
+      <c r="G8" s="62">
+        <v>4</v>
+      </c>
+      <c r="H8" s="58">
+        <v>3</v>
+      </c>
+      <c r="I8" s="62">
+        <v>2</v>
+      </c>
+      <c r="J8" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="D9" s="58">
+        <v>0</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62">
+        <v>1</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="58">
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <v>0</v>
+      </c>
+      <c r="E10" s="62">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>1</v>
+      </c>
+      <c r="G10" s="62">
+        <v>2</v>
+      </c>
+      <c r="H10" s="58">
+        <v>1</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0</v>
+      </c>
+      <c r="H11" s="58">
+        <v>1</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="58">
+        <v>1</v>
+      </c>
+      <c r="D12" s="58">
+        <v>4</v>
+      </c>
+      <c r="E12" s="62">
+        <v>2</v>
+      </c>
+      <c r="F12" s="58">
+        <v>3</v>
+      </c>
+      <c r="G12" s="62">
+        <v>3</v>
+      </c>
+      <c r="H12" s="58">
+        <v>4</v>
+      </c>
+      <c r="I12" s="62">
+        <v>3</v>
+      </c>
+      <c r="J12" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="58">
+        <v>3</v>
+      </c>
+      <c r="D13" s="58">
+        <v>0</v>
+      </c>
+      <c r="E13" s="62">
+        <v>2</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1</v>
+      </c>
+      <c r="G13" s="62">
+        <v>2</v>
+      </c>
+      <c r="H13" s="58">
+        <v>1</v>
+      </c>
+      <c r="I13" s="62">
+        <v>2</v>
+      </c>
+      <c r="J13" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="58">
+        <v>2</v>
+      </c>
+      <c r="D14" s="58">
+        <v>3</v>
+      </c>
+      <c r="E14" s="62">
+        <v>3</v>
+      </c>
+      <c r="F14" s="58">
+        <v>2</v>
+      </c>
+      <c r="G14" s="62">
+        <v>2</v>
+      </c>
+      <c r="H14" s="58">
+        <v>3</v>
+      </c>
+      <c r="I14" s="62">
+        <v>3</v>
+      </c>
+      <c r="J14" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>4</v>
+      </c>
+      <c r="E15" s="62">
+        <v>2</v>
+      </c>
+      <c r="F15" s="58">
+        <v>3</v>
+      </c>
+      <c r="G15" s="62">
+        <v>2</v>
+      </c>
+      <c r="H15" s="58">
+        <v>2</v>
+      </c>
+      <c r="I15" s="62">
+        <v>3</v>
+      </c>
+      <c r="J15" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="58">
+        <v>0</v>
+      </c>
+      <c r="D16" s="58">
+        <v>1</v>
+      </c>
+      <c r="E16" s="62">
+        <v>1</v>
+      </c>
+      <c r="F16" s="58">
+        <v>0</v>
+      </c>
+      <c r="G16" s="62">
+        <v>0</v>
+      </c>
+      <c r="H16" s="58">
+        <v>0</v>
+      </c>
+      <c r="I16" s="62">
+        <v>1</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="58">
+        <v>1</v>
+      </c>
+      <c r="D17" s="58">
+        <v>4</v>
+      </c>
+      <c r="E17" s="62">
+        <v>2</v>
+      </c>
+      <c r="F17" s="58">
+        <v>3</v>
+      </c>
+      <c r="G17" s="62">
+        <v>3</v>
+      </c>
+      <c r="H17" s="58">
+        <v>3</v>
+      </c>
+      <c r="I17" s="62">
+        <v>2</v>
+      </c>
+      <c r="J17" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="58">
+        <v>2</v>
+      </c>
+      <c r="D18" s="58">
+        <v>2</v>
+      </c>
+      <c r="E18" s="58">
+        <v>3</v>
+      </c>
+      <c r="F18" s="58">
+        <v>2</v>
+      </c>
+      <c r="G18" s="62">
+        <v>3</v>
+      </c>
+      <c r="H18" s="58">
+        <v>2</v>
+      </c>
+      <c r="I18" s="62">
+        <v>3</v>
+      </c>
+      <c r="J18" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="58">
+        <v>0</v>
+      </c>
+      <c r="D19" s="58">
+        <v>4</v>
+      </c>
+      <c r="E19" s="58">
+        <v>2</v>
+      </c>
+      <c r="F19" s="58">
+        <v>3</v>
+      </c>
+      <c r="G19" s="62">
+        <v>1</v>
+      </c>
+      <c r="H19" s="58">
+        <v>2</v>
+      </c>
+      <c r="I19" s="62">
+        <v>2</v>
+      </c>
+      <c r="J19" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0</v>
+      </c>
+      <c r="D20" s="58">
+        <v>0</v>
+      </c>
+      <c r="E20" s="58">
+        <v>1</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>0</v>
+      </c>
+      <c r="H20" s="58">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>1</v>
+      </c>
+      <c r="J20" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2</v>
+      </c>
+      <c r="D21" s="58">
+        <v>0</v>
+      </c>
+      <c r="E21" s="58">
+        <v>2</v>
+      </c>
+      <c r="F21" s="58">
+        <v>1</v>
+      </c>
+      <c r="G21" s="62">
+        <v>2</v>
+      </c>
+      <c r="H21" s="58">
+        <v>1</v>
+      </c>
+      <c r="I21" s="62">
+        <v>1</v>
+      </c>
+      <c r="J21" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="58">
+        <v>1</v>
+      </c>
+      <c r="D22" s="58">
+        <v>0</v>
+      </c>
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="58">
+        <v>1</v>
+      </c>
+      <c r="G22" s="62">
+        <v>2</v>
+      </c>
+      <c r="H22" s="58">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>1</v>
+      </c>
+      <c r="J22" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="60">
+        <v>1</v>
+      </c>
+      <c r="D23" s="60">
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
+        <v>1</v>
+      </c>
+      <c r="F23" s="60">
+        <v>0</v>
+      </c>
+      <c r="G23" s="60">
+        <v>1</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <v>1</v>
+      </c>
+      <c r="J23" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="66"/>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="67"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="51">
+        <f>(C5+C12+C15+C17+C19)/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="51">
+        <f>(D5+D12+D15+D17+D19)/5</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" ref="D26:J26" si="0">(E5+E12+E15+E17+E19)/5</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="J26" s="52">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="58">
+        <f>(C13+C20+C21+C22+C23)/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="D27" s="58">
+        <f t="shared" ref="D27:J27" si="1">(D13+D20+D21+D22+D23)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="58">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="58">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="58">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="H27" s="58">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="58">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="J27" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="51">
+        <f>(C9+C10+C11+C16)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="51">
+        <f t="shared" ref="D28:J28" si="2">(D9+D10+D11+D16)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="51">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="51">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="51">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="51">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="51">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="52">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="64">
+        <f>(C4+C6+C8+C14+C18)/5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29" s="64">
+        <f t="shared" ref="D29:J29" si="3">(D4+D6+D8+D14+D18)/5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E29" s="64">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="64">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="H29" s="64">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="I29" s="64">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J29" s="65">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42A500-4428-40E0-8E7A-BA96A4D7C642}">
+  <dimension ref="B2:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="10" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>